--- a/biology/Zoologie/Boophis_goudotii/Boophis_goudotii.xlsx
+++ b/biology/Zoologie/Boophis_goudotii/Boophis_goudotii.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Boophis goudotii est une espèce d'amphibiens de la famille des Mantellidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Boophis goudotii est une espèce d'amphibiens de la famille des Mantellidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique de Madagascar. Elle est présente entre 900 et 2 200 m d'altitude dans le centre, l'Est et le Nord-Ouest de l'île[1],[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique de Madagascar. Elle est présente entre 900 et 2 200 m d'altitude dans le centre, l'Est et le Nord-Ouest de l'île,.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Boophis goudotii mesure de 50 à 70 mm pour les mâles et de 75 à 87 mm pour les femelles, voire pour certains individus 100 mm. Son dos varie entre le quasiment noir et le jaunâtre avec des points noirs. Sa peau est granuleuse chez les mâles durant la période de reproduction et lisse chez les femelles. Les mâles ont un seul sac vocal[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Boophis goudotii mesure de 50 à 70 mm pour les mâles et de 75 à 87 mm pour les femelles, voire pour certains individus 100 mm. Son dos varie entre le quasiment noir et le jaunâtre avec des points noirs. Sa peau est granuleuse chez les mâles durant la période de reproduction et lisse chez les femelles. Les mâles ont un seul sac vocal.
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est nommée en l'honneur de Jules Prosper Goudot[4].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est nommée en l'honneur de Jules Prosper Goudot.
 </t>
         </is>
       </c>
@@ -604,7 +622,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Tschudi, 1838 : Classification der Batrachier, mit Berucksichtigung der fossilen Thiere dieser Abtheilung der Reptilien, p. 1-99 (texte intégral).</t>
         </is>
